--- a/Logiciel_test/Inventaire.xlsx
+++ b/Logiciel_test/Inventaire.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11490" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Utilisateurs" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Nathalie Lamoureux</t>
   </si>
@@ -58,12 +58,39 @@
   </si>
   <si>
     <t>Dispo</t>
+  </si>
+  <si>
+    <t>N/a</t>
+  </si>
+  <si>
+    <t>Macron démission</t>
+  </si>
+  <si>
+    <t>Info to display</t>
+  </si>
+  <si>
+    <t>a = 3</t>
+  </si>
+  <si>
+    <t>a = 4</t>
+  </si>
+  <si>
+    <t>a = 5</t>
+  </si>
+  <si>
+    <t>a = 6</t>
+  </si>
+  <si>
+    <t>a = 2</t>
+  </si>
+  <si>
+    <t>Numero de serie</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -485,15 +512,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -503,8 +530,14 @@
       <c r="C1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -514,8 +547,14 @@
       <c r="C2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2">
+        <v>21413</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -523,10 +562,16 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3">
+        <v>15345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -534,10 +579,16 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>5216534</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -547,8 +598,14 @@
       <c r="C5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -557,6 +614,12 @@
       </c>
       <c r="C6" t="s">
         <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>54848</v>
       </c>
     </row>
   </sheetData>

--- a/Logiciel_test/Inventaire.xlsx
+++ b/Logiciel_test/Inventaire.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Nathalie Lamoureux</t>
   </si>
@@ -63,28 +63,7 @@
     <t>N/a</t>
   </si>
   <si>
-    <t>Macron démission</t>
-  </si>
-  <si>
-    <t>Info to display</t>
-  </si>
-  <si>
-    <t>a = 3</t>
-  </si>
-  <si>
-    <t>a = 4</t>
-  </si>
-  <si>
-    <t>a = 5</t>
-  </si>
-  <si>
-    <t>a = 6</t>
-  </si>
-  <si>
-    <t>a = 2</t>
-  </si>
-  <si>
-    <t>Numero de serie</t>
+    <t>Serial Number</t>
   </si>
 </sst>
 </file>
@@ -512,15 +491,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -531,13 +513,10 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -547,14 +526,11 @@
       <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2">
-        <v>21413</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>2165341</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -564,31 +540,22 @@
       <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3">
-        <v>15345</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>1541541</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4">
-        <v>5216534</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>54413485</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -598,14 +565,11 @@
       <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>5145485</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -615,11 +579,8 @@
       <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>54848</v>
+      <c r="D6">
+        <v>58544</v>
       </c>
     </row>
   </sheetData>

--- a/Logiciel_test/Inventaire.xlsx
+++ b/Logiciel_test/Inventaire.xlsx
@@ -10,13 +10,14 @@
     <sheet name="Utilisateurs" sheetId="1" r:id="rId1"/>
     <sheet name="Critères" sheetId="2" r:id="rId2"/>
     <sheet name="Liste" sheetId="3" r:id="rId3"/>
+    <sheet name="Version" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>Nathalie Lamoureux</t>
   </si>
@@ -64,13 +65,43 @@
   </si>
   <si>
     <t>Serial Number</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Alpha 1.0</t>
+  </si>
+  <si>
+    <t>Localisation</t>
+  </si>
+  <si>
+    <t>manip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date </t>
+  </si>
+  <si>
+    <t>Par</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>initial</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Non</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,13 +109,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="26"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -99,8 +143,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,10 +541,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,7 +552,7 @@
     <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -515,8 +565,20 @@
       <c r="D1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -527,10 +589,10 @@
         <v>13</v>
       </c>
       <c r="D2">
-        <v>2165341</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -541,21 +603,30 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>1541541</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
       <c r="D4">
         <v>54413485</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -569,7 +640,7 @@
         <v>5145485</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -581,6 +652,45 @@
       </c>
       <c r="D6">
         <v>58544</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>1564655</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Logiciel_test/Inventaire.xlsx
+++ b/Logiciel_test/Inventaire.xlsx
@@ -544,7 +544,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,7 +665,7 @@
         <v>13</v>
       </c>
       <c r="D7">
-        <v>1564655</v>
+        <v>2165341</v>
       </c>
     </row>
   </sheetData>
